--- a/Scrum/Proyect/Agile-product-roadmap-template.xlsx
+++ b/Scrum/Proyect/Agile-product-roadmap-template.xlsx
@@ -1,392 +1,42 @@
 
-<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
-</workbook>
+<file path=docProps\app.xml><?xml version="1.0" encoding="utf-8"?>
+<Properties xmlns="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <Application>Microsoft Macintosh Excel</Application>
+  <DocSecurity>0</DocSecurity>
+  <ScaleCrop>false</ScaleCrop>
+  <HeadingPairs>
+    <vt:vector size="2" baseType="variant">
+      <vt:variant>
+        <vt:lpstr>Worksheets</vt:lpstr>
+      </vt:variant>
+      <vt:variant>
+        <vt:i4>1</vt:i4>
+      </vt:variant>
+    </vt:vector>
+  </HeadingPairs>
+  <TitlesOfParts>
+    <vt:vector size="1" baseType="lpstr">
+      <vt:lpstr>Sheet1</vt:lpstr>
+    </vt:vector>
+  </TitlesOfParts>
+  <Company/>
+  <LinksUpToDate>false</LinksUpToDate>
+  <SharedDoc>false</SharedDoc>
+  <HyperlinksChanged>false</HyperlinksChanged>
+  <AppVersion>14.0300</AppVersion>
+</Properties>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>Stream 1</t>
-  </si>
-  <si>
-    <t>April</t>
-  </si>
-  <si>
-    <t>May</t>
-  </si>
-  <si>
-    <t>June</t>
-  </si>
-  <si>
-    <t>Q2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">July </t>
-  </si>
-  <si>
-    <t>August</t>
-  </si>
-  <si>
-    <t>September</t>
-  </si>
-  <si>
-    <t>Q3</t>
-  </si>
-  <si>
-    <t>October</t>
-  </si>
-  <si>
-    <t>November</t>
-  </si>
-  <si>
-    <t>December</t>
-  </si>
-  <si>
-    <t>Q4</t>
-  </si>
-  <si>
-    <t>Stream 2</t>
-  </si>
-  <si>
-    <t>Stream 3</t>
-  </si>
-  <si>
-    <t>Stream 4</t>
-  </si>
-  <si>
-    <t>&lt;Company Name&gt;</t>
-  </si>
-  <si>
-    <t>Agile Product Roadmap</t>
-  </si>
-  <si>
-    <t>Create an Agile Product Roadmap in Smartsheet</t>
-  </si>
-</sst>
+<file path=docProps\core.xml><?xml version="1.0" encoding="utf-8"?>
+<cp:coreProperties xmlns:cp="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:dcmitype="http://purl.org/dc/dcmitype/" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <dc:creator>Emily Esposito</dc:creator>
+  <cp:lastModifiedBy>Emily Esposito</cp:lastModifiedBy>
+  <dcterms:created xsi:type="dcterms:W3CDTF">2016-02-09T22:58:58Z</dcterms:created>
+  <dcterms:modified xsi:type="dcterms:W3CDTF">2016-02-17T22:46:19Z</dcterms:modified>
+</cp:coreProperties>
 </file>
 
-<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="28"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-  </fonts>
-  <fills count="8">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-  </fills>
-  <borders count="10">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-  </cellStyleXfs>
-  <cellXfs count="29">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-  </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <colors>
-    <mruColors>
-      <color rgb="FFFFC57B"/>
-      <color rgb="FFFFE156"/>
-    </mruColors>
-  </colors>
-</styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl\drawings\drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1050,7 +700,317 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl\sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+</file>
+
+<file path=xl\styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="28"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+  </fonts>
+  <fills count="8">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+  </fills>
+  <borders count="10">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="29">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+  </cellXfs>
+  <cellStyles count="4">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFC57B"/>
+      <color rgb="FFFFE156"/>
+    </mruColors>
+  </colors>
+</styleSheet>
+</file>
+
+<file path=xl\theme\theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -1370,7 +1330,26 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl\workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
+  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </sheets>
+  <calcPr calcId="140000" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
+</workbook>
+</file>
+
+<file path=xl\worksheets\sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD140"/>
   <sheetViews>
@@ -1437,8 +1416,10 @@
       <c r="AD2" s="2"/>
     </row>
     <row r="3" spans="1:30" ht="23">
-      <c r="A3" s="3" t="s">
-        <v>17</v>
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Agile Product Roadmap</t>
+        </is>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1535,23 +1516,31 @@
       <c r="AD5" s="2"/>
     </row>
     <row r="6" spans="1:30" ht="18">
-      <c r="A6" s="11" t="s">
-        <v>16</v>
+      <c r="A6" s="11" t="inlineStr">
+        <is>
+          <t>&lt;Company Name&gt;</t>
+        </is>
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="13"/>
-      <c r="D6" s="4" t="s">
-        <v>4</v>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>Q2</t>
+        </is>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="4" t="s">
-        <v>8</v>
+      <c r="G6" s="4" t="inlineStr">
+        <is>
+          <t>Q3</t>
+        </is>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="4" t="s">
-        <v>12</v>
+      <c r="J6" s="4" t="inlineStr">
+        <is>
+          <t>Q4</t>
+        </is>
       </c>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
@@ -1578,32 +1567,50 @@
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="15"/>
-      <c r="D7" s="1" t="s">
-        <v>1</v>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>April</t>
+        </is>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>2</v>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>3</v>
+      <c r="F7" s="1" t="inlineStr">
+        <is>
+          <t>June</t>
+        </is>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>5</v>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">July </t>
+        </is>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>6</v>
+      <c r="H7" s="1" t="inlineStr">
+        <is>
+          <t>August</t>
+        </is>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>7</v>
+      <c r="I7" s="1" t="inlineStr">
+        <is>
+          <t>September</t>
+        </is>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>9</v>
+      <c r="J7" s="1" t="inlineStr">
+        <is>
+          <t>October</t>
+        </is>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>10</v>
+      <c r="K7" s="1" t="inlineStr">
+        <is>
+          <t>November</t>
+        </is>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>11</v>
+      <c r="L7" s="1" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1625,8 +1632,10 @@
       <c r="AD7" s="2"/>
     </row>
     <row r="8" spans="1:30">
-      <c r="A8" s="17" t="s">
-        <v>0</v>
+      <c r="A8" s="17" t="inlineStr">
+        <is>
+          <t>Stream 1</t>
+        </is>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="19"/>
@@ -1915,8 +1924,10 @@
       <c r="AD16" s="2"/>
     </row>
     <row r="17" spans="1:30">
-      <c r="A17" s="5" t="s">
-        <v>13</v>
+      <c r="A17" s="5" t="inlineStr">
+        <is>
+          <t>Stream 2</t>
+        </is>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
@@ -2205,8 +2216,10 @@
       <c r="AD25" s="2"/>
     </row>
     <row r="26" spans="1:30">
-      <c r="A26" s="17" t="s">
-        <v>14</v>
+      <c r="A26" s="17" t="inlineStr">
+        <is>
+          <t>Stream 3</t>
+        </is>
       </c>
       <c r="B26" s="18"/>
       <c r="C26" s="19"/>
@@ -2495,8 +2508,10 @@
       <c r="AD34" s="2"/>
     </row>
     <row r="35" spans="1:30">
-      <c r="A35" s="17" t="s">
-        <v>15</v>
+      <c r="A35" s="17" t="inlineStr">
+        <is>
+          <t>Stream 4</t>
+        </is>
       </c>
       <c r="B35" s="18"/>
       <c r="C35" s="19"/>
@@ -2881,8 +2896,10 @@
       <c r="AD46" s="2"/>
     </row>
     <row r="47" spans="1:30">
-      <c r="A47" s="16" t="s">
-        <v>18</v>
+      <c r="A47" s="16" t="inlineStr">
+        <is>
+          <t>Create an Agile Product Roadmap in Smartsheet</t>
+        </is>
       </c>
       <c r="B47" s="16"/>
       <c r="C47" s="16"/>
